--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-LDFPunktewertNetto.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-LDFPunktewertNetto.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-05T05:58:31+00:00</t>
+    <t>2024-09-10T13:26:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-LDFPunktewertNetto.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-LDFPunktewertNetto.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-10T13:26:38+00:00</t>
+    <t>2024-09-11T18:39:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-LDFPunktewertNetto.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-LDFPunktewertNetto.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-11T18:39:22+00:00</t>
+    <t>2024-09-12T09:13:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-LDFPunktewertNetto.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-LDFPunktewertNetto.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-12T09:13:24+00:00</t>
+    <t>2024-09-12T16:58:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-LDFPunktewertNetto.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-LDFPunktewertNetto.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-12T16:58:21+00:00</t>
+    <t>2024-09-17T12:39:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-LDFPunktewertNetto.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-LDFPunktewertNetto.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T12:39:21+00:00</t>
+    <t>2024-09-17T13:24:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-LDFPunktewertNetto.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-LDFPunktewertNetto.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T13:24:04+00:00</t>
+    <t>2024-09-17T13:52:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-LDFPunktewertNetto.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-LDFPunktewertNetto.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T13:52:39+00:00</t>
+    <t>2024-09-17T14:02:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-LDFPunktewertNetto.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-LDFPunktewertNetto.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T14:02:22+00:00</t>
+    <t>2024-09-17T14:11:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-LDFPunktewertNetto.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-LDFPunktewertNetto.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T14:11:23+00:00</t>
+    <t>2024-09-17T14:20:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-LDFPunktewertNetto.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-LDFPunktewertNetto.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T14:20:09+00:00</t>
+    <t>2024-09-17T14:52:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-LDFPunktewertNetto.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-LDFPunktewertNetto.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T14:52:20+00:00</t>
+    <t>2024-09-17T17:35:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-LDFPunktewertNetto.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-LDFPunktewertNetto.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T17:35:28+00:00</t>
+    <t>2024-09-17T18:06:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-LDFPunktewertNetto.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-LDFPunktewertNetto.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T18:06:53+00:00</t>
+    <t>2024-09-17T18:22:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-LDFPunktewertNetto.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-LDFPunktewertNetto.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T18:22:57+00:00</t>
+    <t>2024-09-17T20:06:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-LDFPunktewertNetto.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-LDFPunktewertNetto.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T20:06:55+00:00</t>
+    <t>2024-09-17T20:22:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-LDFPunktewertNetto.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-LDFPunktewertNetto.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T20:22:56+00:00</t>
+    <t>2024-09-18T05:27:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-LDFPunktewertNetto.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-LDFPunktewertNetto.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-18T05:27:51+00:00</t>
+    <t>2024-09-19T11:50:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-LDFPunktewertNetto.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-LDFPunktewertNetto.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-19T11:50:53+00:00</t>
+    <t>2024-09-19T12:04:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-LDFPunktewertNetto.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-LDFPunktewertNetto.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-19T12:04:20+00:00</t>
+    <t>2024-09-22T15:40:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-LDFPunktewertNetto.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-LDFPunktewertNetto.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-22T15:40:07+00:00</t>
+    <t>2024-09-23T07:19:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-LDFPunktewertNetto.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-LDFPunktewertNetto.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-23T07:19:12+00:00</t>
+    <t>2024-09-23T11:09:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-LDFPunktewertNetto.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-LDFPunktewertNetto.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-23T11:09:48+00:00</t>
+    <t>2024-09-23T11:29:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-LDFPunktewertNetto.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-LDFPunktewertNetto.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-23T11:29:53+00:00</t>
+    <t>2024-09-23T11:42:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-LDFPunktewertNetto.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-LDFPunktewertNetto.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-23T11:42:54+00:00</t>
+    <t>2024-09-23T12:18:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-LDFPunktewertNetto.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-LDFPunktewertNetto.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-23T12:18:50+00:00</t>
+    <t>2024-09-23T18:28:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-LDFPunktewertNetto.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-LDFPunktewertNetto.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-23T18:28:00+00:00</t>
+    <t>2024-09-23T19:43:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-LDFPunktewertNetto.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-LDFPunktewertNetto.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-23T19:43:17+00:00</t>
+    <t>2024-09-23T19:56:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-LDFPunktewertNetto.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-LDFPunktewertNetto.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-23T19:56:54+00:00</t>
+    <t>2024-09-24T07:39:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-LDFPunktewertNetto.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-LDFPunktewertNetto.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-24T07:39:02+00:00</t>
+    <t>2024-09-25T11:00:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-LDFPunktewertNetto.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-LDFPunktewertNetto.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-25T11:00:26+00:00</t>
+    <t>2024-09-25T11:40:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-LDFPunktewertNetto.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-LDFPunktewertNetto.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-25T11:40:05+00:00</t>
+    <t>2024-09-25T11:54:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-LDFPunktewertNetto.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-LDFPunktewertNetto.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-25T11:54:18+00:00</t>
+    <t>2024-09-25T12:57:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-LDFPunktewertNetto.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-LDFPunktewertNetto.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-25T12:57:21+00:00</t>
+    <t>2024-09-25T14:29:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-LDFPunktewertNetto.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-LDFPunktewertNetto.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-25T14:29:33+00:00</t>
+    <t>2024-09-25T14:44:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-LDFPunktewertNetto.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-LDFPunktewertNetto.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-25T14:44:31+00:00</t>
+    <t>2024-09-26T07:10:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-LDFPunktewertNetto.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-LDFPunktewertNetto.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T07:10:34+00:00</t>
+    <t>2024-09-26T07:17:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-LDFPunktewertNetto.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-LDFPunktewertNetto.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T07:17:19+00:00</t>
+    <t>2024-09-26T07:48:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-LDFPunktewertNetto.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-LDFPunktewertNetto.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T07:48:16+00:00</t>
+    <t>2024-09-26T07:51:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-LDFPunktewertNetto.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-LDFPunktewertNetto.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T07:51:13+00:00</t>
+    <t>2024-09-26T08:50:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-LDFPunktewertNetto.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-LDFPunktewertNetto.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T08:50:40+00:00</t>
+    <t>2024-09-26T08:56:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-LDFPunktewertNetto.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-LDFPunktewertNetto.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T08:56:22+00:00</t>
+    <t>2024-09-26T09:55:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-LDFPunktewertNetto.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-LDFPunktewertNetto.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T09:55:47+00:00</t>
+    <t>2024-09-26T09:59:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-LDFPunktewertNetto.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-LDFPunktewertNetto.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T09:59:14+00:00</t>
+    <t>2024-09-26T10:56:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-LDFPunktewertNetto.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-LDFPunktewertNetto.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T10:56:09+00:00</t>
+    <t>2024-09-26T13:32:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-LDFPunktewertNetto.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-LDFPunktewertNetto.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T13:32:53+00:00</t>
+    <t>2024-09-26T13:57:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-LDFPunktewertNetto.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-LDFPunktewertNetto.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T13:57:34+00:00</t>
+    <t>2024-09-27T07:18:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-LDFPunktewertNetto.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-LDFPunktewertNetto.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-27T07:18:42+00:00</t>
+    <t>2024-09-30T06:58:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-LDFPunktewertNetto.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-LDFPunktewertNetto.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-30T06:58:27+00:00</t>
+    <t>2024-09-30T08:02:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-LDFPunktewertNetto.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-LDFPunktewertNetto.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-30T08:02:36+00:00</t>
+    <t>2024-09-30T08:10:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-LDFPunktewertNetto.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-LDFPunktewertNetto.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-30T08:10:10+00:00</t>
+    <t>2024-09-30T08:14:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-LDFPunktewertNetto.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-LDFPunktewertNetto.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-30T08:14:13+00:00</t>
+    <t>2024-09-30T08:48:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-LDFPunktewertNetto.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-LDFPunktewertNetto.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-30T08:48:22+00:00</t>
+    <t>2024-09-30T09:04:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-LDFPunktewertNetto.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-LDFPunktewertNetto.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-30T09:04:34+00:00</t>
+    <t>2024-09-30T10:20:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-LDFPunktewertNetto.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-LDFPunktewertNetto.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-30T10:20:26+00:00</t>
+    <t>2024-09-30T12:24:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-LDFPunktewertNetto.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-LDFPunktewertNetto.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-30T12:24:06+00:00</t>
+    <t>2024-09-30T18:33:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-LDFPunktewertNetto.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-LDFPunktewertNetto.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-30T18:33:40+00:00</t>
+    <t>2024-10-01T09:38:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-LDFPunktewertNetto.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-LDFPunktewertNetto.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-01T09:38:16+00:00</t>
+    <t>2024-10-01T12:31:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-LDFPunktewertNetto.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-LDFPunktewertNetto.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-01T12:31:57+00:00</t>
+    <t>2024-10-07T08:22:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-LDFPunktewertNetto.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-LDFPunktewertNetto.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-07T08:22:28+00:00</t>
+    <t>2024-10-11T08:15:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-LDFPunktewertNetto.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-LDFPunktewertNetto.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-11T08:15:28+00:00</t>
+    <t>2024-10-11T09:22:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-LDFPunktewertNetto.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-LDFPunktewertNetto.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-11T09:22:23+00:00</t>
+    <t>2024-10-23T07:34:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-LDFPunktewertNetto.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-LDFPunktewertNetto.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-23T07:34:13+00:00</t>
+    <t>2024-10-23T11:03:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-LDFPunktewertNetto.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-LDFPunktewertNetto.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-23T11:03:56+00:00</t>
+    <t>2024-10-24T12:38:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-LDFPunktewertNetto.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-LDFPunktewertNetto.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-24T12:38:05+00:00</t>
+    <t>2024-10-24T13:32:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-LDFPunktewertNetto.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-LDFPunktewertNetto.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-24T13:32:35+00:00</t>
+    <t>2024-10-24T13:59:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-LDFPunktewertNetto.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-LDFPunktewertNetto.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-24T13:59:53+00:00</t>
+    <t>2024-10-24T14:28:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-LDFPunktewertNetto.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-LDFPunktewertNetto.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-24T14:28:41+00:00</t>
+    <t>2024-10-24T17:45:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-LDFPunktewertNetto.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-LDFPunktewertNetto.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-24T17:45:49+00:00</t>
+    <t>2024-10-24T18:34:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-LDFPunktewertNetto.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-LDFPunktewertNetto.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-24T18:34:10+00:00</t>
+    <t>2024-10-24T19:48:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
